--- a/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
+++ b/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GREEN\Documents\최대영\팀프로젝트 3조\데이터베이스 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\resources\3조 팀프로젝트\데이터베이스 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +586,14 @@
   </si>
   <si>
     <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,12 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +839,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,277 +1340,277 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>44929</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="I15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
@@ -1653,1469 +1657,1637 @@
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="17">
         <v>44929</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="I32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="22" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="23"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>3</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="16"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>5</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>6</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="22" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="23"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>7</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="22" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="23"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>8</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="22" t="s">
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>9</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="22" t="s">
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="23"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>10</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="22" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="23"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>11</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="22" t="s">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>12</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="22" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="23"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>13</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="15"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="22"/>
       <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16" t="s">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="16"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>14</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16" t="s">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="16"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="18"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="17">
         <v>44929</v>
       </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
+      <c r="I56" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18" t="s">
+      <c r="J58" s="16"/>
+      <c r="K58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16" t="s">
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="16" t="s">
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="13" t="s">
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L61" s="16"/>
+      <c r="L61" s="23"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>4</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>5</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16" t="s">
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>6</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="16" t="s">
+      <c r="J64" s="22"/>
+      <c r="K64" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L64" s="16"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>7</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="22" t="s">
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L65" s="23"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>8</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="22" t="s">
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="23"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>9</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="15"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="22" t="s">
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L67" s="23"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>10</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="22" t="s">
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L68" s="23"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>11</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="22" t="s">
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L69" s="23"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>12</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="22" t="s">
+      <c r="J70" s="22"/>
+      <c r="K70" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L70" s="23"/>
+      <c r="L70" s="21"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>13</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="15"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="22" t="s">
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="23"/>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="18"/>
+      <c r="G82" s="16"/>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="17">
         <v>44929</v>
       </c>
-      <c r="J82" s="19"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
       <c r="H83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
+      <c r="I83" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18" t="s">
+      <c r="J85" s="16"/>
+      <c r="K85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="18"/>
+      <c r="L85" s="16"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="16" t="s">
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="L86" s="16"/>
+      <c r="L86" s="23"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="10">
         <v>2</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="16" t="s">
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L87" s="16"/>
+      <c r="L87" s="23"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="10">
         <v>3</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="16" t="s">
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L88" s="16"/>
+      <c r="L88" s="23"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <v>4</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="16" t="s">
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L89" s="16"/>
+      <c r="L89" s="23"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="10">
         <v>5</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="22"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="22" t="s">
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L90" s="23"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>6</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="15"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="22" t="s">
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="L91" s="23"/>
+      <c r="L91" s="21"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="18"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="17">
         <v>44929</v>
       </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
+      <c r="I99" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18" t="s">
+      <c r="D101" s="16"/>
+      <c r="E101" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="18"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="18" t="s">
+      <c r="I101" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18" t="s">
+      <c r="J101" s="16"/>
+      <c r="K101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L101" s="18"/>
+      <c r="L101" s="16"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>1</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15" t="s">
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="15"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="22" t="s">
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L102" s="23"/>
+      <c r="L102" s="21"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>2</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="15"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="22">
         <v>0</v>
       </c>
-      <c r="J103" s="15"/>
-      <c r="K103" s="16" t="s">
+      <c r="J103" s="22"/>
+      <c r="K103" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L103" s="16"/>
+      <c r="L103" s="23"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>3</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F104" s="15"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="22">
         <v>0</v>
       </c>
-      <c r="J104" s="15"/>
-      <c r="K104" s="16" t="s">
+      <c r="J104" s="22"/>
+      <c r="K104" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="L104" s="16"/>
+      <c r="L104" s="23"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="9">
         <v>4</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15" t="s">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F105" s="15"/>
+      <c r="F105" s="22"/>
       <c r="G105" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="16" t="s">
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="L105" s="16"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="9">
         <v>5</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15" t="s">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F106" s="15"/>
+      <c r="F106" s="22"/>
       <c r="G106" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="16" t="s">
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L106" s="16"/>
+      <c r="L106" s="23"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="9">
         <v>6</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="15" t="s">
+      <c r="D107" s="19"/>
+      <c r="E107" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F107" s="15"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="22" t="s">
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="L107" s="23"/>
+      <c r="L107" s="21"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L99"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B93:L94"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="B108:L108"/>
+    <mergeCell ref="B109:L110"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:L84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B50:L51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:L33"/>
     <mergeCell ref="C34:D34"/>
@@ -3140,206 +3312,38 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B50:L51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:L84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L83"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="B108:L108"/>
-    <mergeCell ref="B109:L110"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L99"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="B93:L94"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
+++ b/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GREEN\Documents\최대영\팀프로젝트 3조\데이터베이스 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\resources\3조 팀프로젝트\데이터베이스 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +586,10 @@
   </si>
   <si>
     <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,12 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +835,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,277 +1336,277 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>44929</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="I15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
@@ -1653,1469 +1653,1637 @@
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="17">
         <v>44929</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="I32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="22" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="23"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>3</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="16"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>5</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>6</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="22" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="23"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>7</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="22" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="23"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>8</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="22" t="s">
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>9</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="22" t="s">
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="23"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>10</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="22" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="23"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>11</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="22" t="s">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>12</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="22" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="23"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>13</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="15"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="22"/>
       <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16" t="s">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="16"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>14</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16" t="s">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="16"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="18"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="17">
         <v>44929</v>
       </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
+      <c r="I56" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18" t="s">
+      <c r="J58" s="16"/>
+      <c r="K58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16" t="s">
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="16" t="s">
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="13" t="s">
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L61" s="16"/>
+      <c r="L61" s="23"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>4</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>5</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16" t="s">
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>6</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="16" t="s">
+      <c r="J64" s="22"/>
+      <c r="K64" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L64" s="16"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>7</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="22" t="s">
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L65" s="23"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>8</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="22" t="s">
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="23"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>9</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="15"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="22" t="s">
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L67" s="23"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>10</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="22" t="s">
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L68" s="23"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>11</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="22" t="s">
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L69" s="23"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>12</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="22" t="s">
+      <c r="J70" s="22"/>
+      <c r="K70" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L70" s="23"/>
+      <c r="L70" s="21"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>13</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="15"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="22" t="s">
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="23"/>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="18"/>
+      <c r="G82" s="16"/>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="17">
         <v>44929</v>
       </c>
-      <c r="J82" s="19"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
       <c r="H83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
+      <c r="I83" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18" t="s">
+      <c r="J85" s="16"/>
+      <c r="K85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="18"/>
+      <c r="L85" s="16"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="16" t="s">
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="L86" s="16"/>
+      <c r="L86" s="23"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="10">
         <v>2</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="16" t="s">
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L87" s="16"/>
+      <c r="L87" s="23"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="10">
         <v>3</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="16" t="s">
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L88" s="16"/>
+      <c r="L88" s="23"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <v>4</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="16" t="s">
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L89" s="16"/>
+      <c r="L89" s="23"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="10">
         <v>5</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="22"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="22" t="s">
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L90" s="23"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>6</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="15"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="22" t="s">
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="L91" s="23"/>
+      <c r="L91" s="21"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="18"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="17">
         <v>44929</v>
       </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
+      <c r="I99" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18" t="s">
+      <c r="D101" s="16"/>
+      <c r="E101" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="18"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="18" t="s">
+      <c r="I101" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18" t="s">
+      <c r="J101" s="16"/>
+      <c r="K101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L101" s="18"/>
+      <c r="L101" s="16"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>1</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15" t="s">
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="15"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="22" t="s">
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L102" s="23"/>
+      <c r="L102" s="21"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>2</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="15"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="22">
         <v>0</v>
       </c>
-      <c r="J103" s="15"/>
-      <c r="K103" s="16" t="s">
+      <c r="J103" s="22"/>
+      <c r="K103" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L103" s="16"/>
+      <c r="L103" s="23"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>3</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F104" s="15"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="22">
         <v>0</v>
       </c>
-      <c r="J104" s="15"/>
-      <c r="K104" s="16" t="s">
+      <c r="J104" s="22"/>
+      <c r="K104" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="L104" s="16"/>
+      <c r="L104" s="23"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="9">
         <v>4</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15" t="s">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F105" s="15"/>
+      <c r="F105" s="22"/>
       <c r="G105" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="16" t="s">
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="L105" s="16"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="9">
         <v>5</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15" t="s">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F106" s="15"/>
+      <c r="F106" s="22"/>
       <c r="G106" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="16" t="s">
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L106" s="16"/>
+      <c r="L106" s="23"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="9">
         <v>6</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="15" t="s">
+      <c r="D107" s="19"/>
+      <c r="E107" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F107" s="15"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="22" t="s">
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="L107" s="23"/>
+      <c r="L107" s="21"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L99"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B93:L94"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="B108:L108"/>
+    <mergeCell ref="B109:L110"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:L84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B50:L51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:L33"/>
     <mergeCell ref="C34:D34"/>
@@ -3140,206 +3308,38 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B50:L51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:L84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L83"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="B108:L108"/>
-    <mergeCell ref="B109:L110"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L99"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="B93:L94"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
+++ b/3조 팀프로젝트/데이터베이스 설계/테이블 정의서.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,30 @@
   </si>
   <si>
     <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트를 이용하는 이용자에 대한 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기 동물에 대한 정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입양홍보 게시판의 유기동물 입양을 희망하는 입양 신청서 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판,정보공유게시판,후기게시판의 정보가 담긴 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">댓글 테이블 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,6 +840,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,12 +865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,277 +1360,279 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="19">
         <v>44929</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23" t="s">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
@@ -1653,1437 +1679,1677 @@
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="19">
         <v>44929</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16" t="s">
+      <c r="I34" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="20" t="s">
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="21"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>2</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20" t="s">
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="21"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>3</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23" t="s">
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="23"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23" t="s">
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="23"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>5</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="22"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23" t="s">
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="23"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>6</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="20" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>7</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="20" t="s">
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>8</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="20" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="21"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>9</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="20" t="s">
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="21"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>10</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="22"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="20" t="s">
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="21"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>11</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="20" t="s">
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="21"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>12</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="20" t="s">
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="21"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>13</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23" t="s">
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="23"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>14</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23" t="s">
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="23"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="19">
         <v>44929</v>
       </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="16"/>
+      <c r="F58" s="18"/>
       <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16" t="s">
+      <c r="J58" s="18"/>
+      <c r="K58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="16"/>
+      <c r="L58" s="18"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="22"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23" t="s">
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L59" s="23"/>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="23" t="s">
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="23"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>3</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="22"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="13" t="s">
         <v>151</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="23" t="s">
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="L61" s="23"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>4</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="11" t="s">
         <v>142</v>
       </c>
       <c r="H62" s="11"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23" t="s">
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="23"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>5</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="22"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23" t="s">
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L63" s="23"/>
+      <c r="L63" s="16"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>6</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23" t="s">
+      <c r="J64" s="15"/>
+      <c r="K64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L64" s="23"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>7</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="22"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="20" t="s">
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L65" s="21"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>8</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="20" t="s">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="21"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>9</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22" t="s">
+      <c r="D67" s="15"/>
+      <c r="E67" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="22"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="20" t="s">
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L67" s="21"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>10</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="22"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="20" t="s">
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L68" s="21"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>11</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22" t="s">
+      <c r="D69" s="15"/>
+      <c r="E69" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="22"/>
+      <c r="F69" s="15"/>
       <c r="G69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="20" t="s">
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L69" s="21"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>12</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="22" t="s">
+      <c r="I70" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="20" t="s">
+      <c r="J70" s="15"/>
+      <c r="K70" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L70" s="21"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>13</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22" t="s">
+      <c r="D71" s="15"/>
+      <c r="E71" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="20" t="s">
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="21"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16" t="s">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="18"/>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="19">
         <v>44929</v>
       </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16" t="s">
+      <c r="D85" s="18"/>
+      <c r="E85" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="16"/>
+      <c r="F85" s="18"/>
       <c r="G85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="16" t="s">
+      <c r="I85" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16" t="s">
+      <c r="J85" s="18"/>
+      <c r="K85" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="16"/>
+      <c r="L85" s="18"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="22"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="23" t="s">
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L86" s="23"/>
+      <c r="L86" s="16"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="10">
         <v>2</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="22"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="23" t="s">
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L87" s="23"/>
+      <c r="L87" s="16"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="10">
         <v>3</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="22"/>
+      <c r="F88" s="15"/>
       <c r="G88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="23" t="s">
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="L88" s="23"/>
+      <c r="L88" s="16"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <v>4</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F89" s="22"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="23" t="s">
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L89" s="23"/>
+      <c r="L89" s="16"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="10">
         <v>5</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="22" t="s">
+      <c r="D90" s="21"/>
+      <c r="E90" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F90" s="22"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="20" t="s">
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="L90" s="21"/>
+      <c r="L90" s="23"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>6</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="22"/>
+      <c r="F91" s="15"/>
       <c r="G91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="20" t="s">
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L91" s="21"/>
+      <c r="L91" s="23"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="16" t="s">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="16"/>
+      <c r="G98" s="18"/>
       <c r="H98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="19">
         <v>44929</v>
       </c>
-      <c r="J98" s="17"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16" t="s">
+      <c r="D101" s="18"/>
+      <c r="E101" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="16"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="16" t="s">
+      <c r="I101" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16" t="s">
+      <c r="J101" s="18"/>
+      <c r="K101" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L101" s="16"/>
+      <c r="L101" s="18"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>1</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22" t="s">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="22"/>
+      <c r="F102" s="15"/>
       <c r="G102" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="20" t="s">
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L102" s="21"/>
+      <c r="L102" s="23"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>2</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22" t="s">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="22"/>
+      <c r="F103" s="15"/>
       <c r="G103" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="22">
+      <c r="I103" s="15">
         <v>0</v>
       </c>
-      <c r="J103" s="22"/>
-      <c r="K103" s="23" t="s">
+      <c r="J103" s="15"/>
+      <c r="K103" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L103" s="23"/>
+      <c r="L103" s="16"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>3</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22" t="s">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F104" s="22"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="15">
         <v>0</v>
       </c>
-      <c r="J104" s="22"/>
-      <c r="K104" s="23" t="s">
+      <c r="J104" s="15"/>
+      <c r="K104" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L104" s="23"/>
+      <c r="L104" s="16"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="9">
         <v>4</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
+      <c r="D105" s="15"/>
+      <c r="E105" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F105" s="22"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="23" t="s">
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L105" s="23"/>
+      <c r="L105" s="16"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="9">
         <v>5</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22" t="s">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F106" s="22"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="23" t="s">
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="L106" s="23"/>
+      <c r="L106" s="16"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="9">
         <v>6</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="22" t="s">
+      <c r="D107" s="21"/>
+      <c r="E107" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F107" s="22"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="20" t="s">
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="L107" s="21"/>
+      <c r="L107" s="23"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="256">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B50:L51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:L84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="B108:L108"/>
+    <mergeCell ref="B109:L110"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="I61:J61"/>
@@ -3108,238 +3374,6 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
-    <mergeCell ref="B108:L108"/>
-    <mergeCell ref="B109:L110"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:L84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L83"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B50:L51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L28"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
